--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.182026095348</v>
+        <v>517.982232868249</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.8508146031365</v>
+        <v>708.7261427736566</v>
       </c>
       <c r="AC2" t="n">
-        <v>576.9752280866534</v>
+        <v>641.0863144107268</v>
       </c>
       <c r="AD2" t="n">
-        <v>466182.0260953479</v>
+        <v>517982.2328682489</v>
       </c>
       <c r="AE2" t="n">
-        <v>637850.8146031365</v>
+        <v>708726.1427736566</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.568295346232457e-06</v>
+        <v>3.702620005866855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>576975.2280866534</v>
+        <v>641086.3144107268</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.3827144845729</v>
+        <v>219.8308448119348</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.6488084658296</v>
+        <v>300.7822601239544</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.4409221842632</v>
+        <v>272.0760233683665</v>
       </c>
       <c r="AD3" t="n">
-        <v>185382.7144845729</v>
+        <v>219830.8448119348</v>
       </c>
       <c r="AE3" t="n">
-        <v>253648.8084658296</v>
+        <v>300782.2601239544</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.352316010195917e-06</v>
+        <v>6.274579111333812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.983333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>229440.9221842632</v>
+        <v>272076.0233683665</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.3030576636388</v>
+        <v>219.7511879910006</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.5398184892166</v>
+        <v>300.6732701473414</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.3423340580497</v>
+        <v>271.9774352421529</v>
       </c>
       <c r="AD4" t="n">
-        <v>185303.0576636388</v>
+        <v>219751.1879910007</v>
       </c>
       <c r="AE4" t="n">
-        <v>253539.8184892166</v>
+        <v>300673.2701473414</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.363986764396349e-06</v>
+        <v>6.291404422351668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.964583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>229342.3340580497</v>
+        <v>271977.4352421529</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.188122066778</v>
+        <v>312.8579057953411</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.9975055224283</v>
+        <v>428.0659890258718</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.5401997322333</v>
+        <v>387.2119718276307</v>
       </c>
       <c r="AD2" t="n">
-        <v>279188.122066778</v>
+        <v>312857.9057953411</v>
       </c>
       <c r="AE2" t="n">
-        <v>381997.5055224283</v>
+        <v>428065.9890258719</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.476185305421268e-06</v>
+        <v>5.089004516685586e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.043749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>345540.1997322333</v>
+        <v>387211.9718276308</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.5018921484239</v>
+        <v>224.0009941678434</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.6530931876864</v>
+        <v>306.488042446711</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.7767278028436</v>
+        <v>277.2372538343567</v>
       </c>
       <c r="AD3" t="n">
-        <v>190501.8921484239</v>
+        <v>224000.9941678434</v>
       </c>
       <c r="AE3" t="n">
-        <v>260653.0931876864</v>
+        <v>306488.042446711</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.325688087578788e-06</v>
+        <v>6.332644632359075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.26875</v>
       </c>
       <c r="AH3" t="n">
-        <v>235776.7278028436</v>
+        <v>277237.2538343567</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.5931442596784</v>
+        <v>260.2589957302882</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.1935159755204</v>
+        <v>356.097839774727</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.2571523456787</v>
+        <v>322.1123617330834</v>
       </c>
       <c r="AD2" t="n">
-        <v>221593.1442596784</v>
+        <v>260258.9957302882</v>
       </c>
       <c r="AE2" t="n">
-        <v>303193.5159755204</v>
+        <v>356097.839774727</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.766088665982565e-06</v>
+        <v>5.826604025577504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.316666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>274257.1523456787</v>
+        <v>322112.3617330834</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.3771688619757</v>
+        <v>233.3777795629331</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.5331265705077</v>
+        <v>319.3177738988422</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.2366316838712</v>
+        <v>288.8425337233418</v>
       </c>
       <c r="AD2" t="n">
-        <v>201377.1688619757</v>
+        <v>233377.7795629331</v>
       </c>
       <c r="AE2" t="n">
-        <v>275533.1265705077</v>
+        <v>319317.7738988422</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.08829951527771e-06</v>
+        <v>6.178622398613046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.208333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>249236.6316838712</v>
+        <v>288842.5337233418</v>
       </c>
     </row>
     <row r="3">
@@ -3042,28 +3042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.3221203185022</v>
+        <v>234.3227310194596</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.8260508416427</v>
+        <v>320.6106981699771</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.4061610772</v>
+        <v>290.0120631166706</v>
       </c>
       <c r="AD3" t="n">
-        <v>202322.1203185022</v>
+        <v>234322.7310194595</v>
       </c>
       <c r="AE3" t="n">
-        <v>276826.0508416427</v>
+        <v>320610.6981699771</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087816207615424e-06</v>
+        <v>6.177891978658131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.210416666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>250406.1610772</v>
+        <v>290012.0631166706</v>
       </c>
     </row>
   </sheetData>
@@ -3339,28 +3339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.5336310016018</v>
+        <v>296.8011599698802</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.1594108168514</v>
+        <v>406.096441013845</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.3133196793605</v>
+        <v>367.3391666434175</v>
       </c>
       <c r="AD2" t="n">
-        <v>251533.6310016018</v>
+        <v>296801.1599698802</v>
       </c>
       <c r="AE2" t="n">
-        <v>344159.4108168514</v>
+        <v>406096.441013845</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366595330767112e-06</v>
+        <v>5.320863488620663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.82291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>311313.3196793605</v>
+        <v>367339.1666434174</v>
       </c>
     </row>
   </sheetData>
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.4264946629501</v>
+        <v>355.7974079251516</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.8439573989048</v>
+        <v>486.8177101970155</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.915691991027</v>
+        <v>440.3565111887591</v>
       </c>
       <c r="AD2" t="n">
-        <v>313426.49466295</v>
+        <v>355797.4079251516</v>
       </c>
       <c r="AE2" t="n">
-        <v>428843.9573989048</v>
+        <v>486817.7101970155</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.224059250676994e-06</v>
+        <v>4.700311776190543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.664583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>387915.691991027</v>
+        <v>440356.5111887591</v>
       </c>
     </row>
     <row r="3">
@@ -3742,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.2583212318611</v>
+        <v>216.6809586977328</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.6880728309405</v>
+        <v>296.4724469793374</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.7129304415489</v>
+        <v>268.1775327414096</v>
       </c>
       <c r="AD3" t="n">
-        <v>191258.3212318611</v>
+        <v>216680.9586977328</v>
       </c>
       <c r="AE3" t="n">
-        <v>261688.0728309405</v>
+        <v>296472.4469793374</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337830612174028e-06</v>
+        <v>6.324063773096001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.183333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>236712.9304415489</v>
+        <v>268177.5327414096</v>
       </c>
     </row>
   </sheetData>
@@ -4039,28 +4039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.7155167660678</v>
+        <v>332.24243730631</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.6650631520998</v>
+        <v>454.5887602243538</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.0942220372489</v>
+        <v>411.2034469678728</v>
       </c>
       <c r="AD2" t="n">
-        <v>287715.5167660678</v>
+        <v>332242.4373063101</v>
       </c>
       <c r="AE2" t="n">
-        <v>393665.0631520998</v>
+        <v>454588.7602243539</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.073915289233003e-06</v>
+        <v>4.925134348914995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.13125</v>
       </c>
       <c r="AH2" t="n">
-        <v>356094.2220372489</v>
+        <v>411203.4469678728</v>
       </c>
     </row>
   </sheetData>
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.0664820502266</v>
+        <v>232.9993333381178</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.7397870512523</v>
+        <v>318.799967078181</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.6144459713651</v>
+        <v>288.3741456588979</v>
       </c>
       <c r="AD2" t="n">
-        <v>200066.4820502266</v>
+        <v>232999.3333381178</v>
       </c>
       <c r="AE2" t="n">
-        <v>273739.7870512523</v>
+        <v>318799.967078181</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.097773595235329e-06</v>
+        <v>6.084551246261957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.904166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>247614.4459713651</v>
+        <v>288374.1456588979</v>
       </c>
     </row>
     <row r="3">
@@ -4442,28 +4442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.3262325078166</v>
+        <v>223.2590837957078</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.4127479178512</v>
+        <v>305.47292794478</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.5593207482347</v>
+        <v>276.3190204357675</v>
       </c>
       <c r="AD3" t="n">
-        <v>190326.2325078166</v>
+        <v>223259.0837957078</v>
       </c>
       <c r="AE3" t="n">
-        <v>260412.7479178512</v>
+        <v>305472.92794478</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.249686959527083e-06</v>
+        <v>6.310118771783621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.622916666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>235559.3207482347</v>
+        <v>276319.0204357675</v>
       </c>
     </row>
   </sheetData>
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.2371088687452</v>
+        <v>276.7564742099066</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.8077432179584</v>
+        <v>378.6704176479248</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.0450393039367</v>
+        <v>342.5306444548751</v>
       </c>
       <c r="AD2" t="n">
-        <v>243237.1088687452</v>
+        <v>276756.4742099066</v>
       </c>
       <c r="AE2" t="n">
-        <v>332807.7432179584</v>
+        <v>378670.4176479247</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.720968436550226e-06</v>
+        <v>5.471470052650245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.529166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>301045.0393039367</v>
+        <v>342530.6444548751</v>
       </c>
     </row>
     <row r="3">
@@ -4845,28 +4845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.6559366651077</v>
+        <v>222.9193689511019</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.4956195744918</v>
+        <v>305.0081151072292</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.7297218467675</v>
+        <v>275.8985686830635</v>
       </c>
       <c r="AD3" t="n">
-        <v>189655.9366651077</v>
+        <v>222919.3689511018</v>
       </c>
       <c r="AE3" t="n">
-        <v>259495.6195744918</v>
+        <v>305008.1151072292</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.311777296562581e-06</v>
+        <v>6.340220497465904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.360416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>234729.7218467675</v>
+        <v>275898.5686830635</v>
       </c>
     </row>
   </sheetData>
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.2306196462035</v>
+        <v>453.6372500416068</v>
       </c>
       <c r="AB2" t="n">
-        <v>550.3496789624846</v>
+        <v>620.6864985699482</v>
       </c>
       <c r="AC2" t="n">
-        <v>497.8250780229301</v>
+        <v>561.4490502854036</v>
       </c>
       <c r="AD2" t="n">
-        <v>402230.6196462035</v>
+        <v>453637.2500416068</v>
       </c>
       <c r="AE2" t="n">
-        <v>550349.6789624846</v>
+        <v>620686.4985699481</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.787785897605624e-06</v>
+        <v>4.033291991125459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>497825.0780229301</v>
+        <v>561449.0502854036</v>
       </c>
     </row>
     <row r="3">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.137591398856</v>
+        <v>218.8836665323942</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.2593731809702</v>
+        <v>299.4862890153311</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.0388294950152</v>
+        <v>270.9037379234429</v>
       </c>
       <c r="AD3" t="n">
-        <v>193137.591398856</v>
+        <v>218883.6665323942</v>
       </c>
       <c r="AE3" t="n">
-        <v>264259.3731809702</v>
+        <v>299486.2890153311</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.350640023555226e-06</v>
+        <v>6.294386372477996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.041666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>239038.8294950153</v>
+        <v>270903.7379234429</v>
       </c>
     </row>
     <row r="4">
@@ -5354,28 +5354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>193.6018442621202</v>
+        <v>219.3479193956585</v>
       </c>
       <c r="AB4" t="n">
-        <v>264.8945844298788</v>
+        <v>300.1215002642397</v>
       </c>
       <c r="AC4" t="n">
-        <v>239.6134170738528</v>
+        <v>271.4783255022804</v>
       </c>
       <c r="AD4" t="n">
-        <v>193601.8442621202</v>
+        <v>219347.9193956585</v>
       </c>
       <c r="AE4" t="n">
-        <v>264894.5844298788</v>
+        <v>300121.5002642397</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.351669377985189e-06</v>
+        <v>6.295875614166881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.039583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>239613.4170738528</v>
+        <v>271478.3255022804</v>
       </c>
     </row>
   </sheetData>
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.5623990847662</v>
+        <v>231.8707635416171</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.1041255642533</v>
+        <v>317.2558080936241</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.0892756859281</v>
+        <v>286.9773590405859</v>
       </c>
       <c r="AD2" t="n">
-        <v>191562.3990847662</v>
+        <v>231870.7635416171</v>
       </c>
       <c r="AE2" t="n">
-        <v>262104.1255642532</v>
+        <v>317255.8080936241</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.154061226351083e-06</v>
+        <v>6.238089829370003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.979166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>237089.2756859281</v>
+        <v>286977.3590405859</v>
       </c>
     </row>
     <row r="3">
@@ -5757,28 +5757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.8464086605353</v>
+        <v>232.1547731173862</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.4927199954384</v>
+        <v>317.6444025248094</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.4407832099968</v>
+        <v>287.3288665646546</v>
       </c>
       <c r="AD3" t="n">
-        <v>191846.4086605353</v>
+        <v>232154.7731173862</v>
       </c>
       <c r="AE3" t="n">
-        <v>262492.7199954385</v>
+        <v>317644.4025248094</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.161220109438774e-06</v>
+        <v>6.248840213956462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.964583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>237440.7832099968</v>
+        <v>287328.8665646546</v>
       </c>
     </row>
   </sheetData>
@@ -6054,28 +6054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.0904025228422</v>
+        <v>247.2960216286723</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.7184690322674</v>
+        <v>338.3613267226808</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.5453379527925</v>
+        <v>306.0685965934737</v>
       </c>
       <c r="AD2" t="n">
-        <v>208090.4025228422</v>
+        <v>247296.0216286723</v>
       </c>
       <c r="AE2" t="n">
-        <v>284718.4690322673</v>
+        <v>338361.3267226808</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899775330169111e-06</v>
+        <v>5.981267734016037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.852083333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>257545.3379527925</v>
+        <v>306068.5965934737</v>
       </c>
     </row>
   </sheetData>
@@ -9844,28 +9844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.7255220346066</v>
+        <v>276.5644008660146</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.6888381392436</v>
+        <v>378.4076144251338</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.5599384993949</v>
+        <v>342.2929228028207</v>
       </c>
       <c r="AD2" t="n">
-        <v>230725.5220346066</v>
+        <v>276564.4008660147</v>
       </c>
       <c r="AE2" t="n">
-        <v>315688.8381392436</v>
+        <v>378407.6144251338</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.590833693511011e-06</v>
+        <v>5.610606815603719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.945833333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>285559.9384993949</v>
+        <v>342292.9228028207</v>
       </c>
     </row>
   </sheetData>
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.3224699306218</v>
+        <v>392.279511698754</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.0124614437048</v>
+        <v>536.7341340568856</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.4414475796231</v>
+        <v>485.5089816135841</v>
       </c>
       <c r="AD2" t="n">
-        <v>341322.4699306218</v>
+        <v>392279.511698754</v>
       </c>
       <c r="AE2" t="n">
-        <v>467012.4614437048</v>
+        <v>536734.1340568856</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658486280489295e-06</v>
+        <v>4.332471641475565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.41875</v>
       </c>
       <c r="AH2" t="n">
-        <v>422441.4475796231</v>
+        <v>485508.9816135841</v>
       </c>
     </row>
   </sheetData>
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.9598201745283</v>
+        <v>255.063351385392</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.6952181388174</v>
+        <v>348.988929966224</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.7109727586542</v>
+        <v>315.6819162993912</v>
       </c>
       <c r="AD2" t="n">
-        <v>221959.8201745283</v>
+        <v>255063.351385392</v>
       </c>
       <c r="AE2" t="n">
-        <v>303695.2181388175</v>
+        <v>348988.929966224</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.943527435246001e-06</v>
+        <v>5.826091735910385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.129166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>274710.9727586542</v>
+        <v>315681.9162993912</v>
       </c>
     </row>
     <row r="3">
@@ -10544,28 +10544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.0626358184358</v>
+        <v>223.0808261747279</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.0520832983754</v>
+        <v>305.2290280035842</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.2330774538455</v>
+        <v>276.0983979626438</v>
       </c>
       <c r="AD3" t="n">
-        <v>190062.6358184358</v>
+        <v>223080.8261747279</v>
       </c>
       <c r="AE3" t="n">
-        <v>260052.0832983754</v>
+        <v>305229.0280035842</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.281425373043038e-06</v>
+        <v>6.325295663182585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.4875</v>
       </c>
       <c r="AH3" t="n">
-        <v>235233.0774538455</v>
+        <v>276098.3979626438</v>
       </c>
     </row>
   </sheetData>
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.7183379620594</v>
+        <v>402.278000819572</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.1824996527377</v>
+        <v>550.4145079741974</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.2092926683565</v>
+        <v>497.883719844753</v>
       </c>
       <c r="AD2" t="n">
-        <v>359718.3379620594</v>
+        <v>402278.000819572</v>
       </c>
       <c r="AE2" t="n">
-        <v>492182.4996527377</v>
+        <v>550414.5079741974</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.996761224570425e-06</v>
+        <v>4.351803797559035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.30833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>445209.2926683564</v>
+        <v>497883.719844753</v>
       </c>
     </row>
     <row r="3">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.9161634610228</v>
+        <v>217.5032014916935</v>
       </c>
       <c r="AB3" t="n">
-        <v>262.5881615908301</v>
+        <v>297.5974758448259</v>
       </c>
       <c r="AC3" t="n">
-        <v>237.5271159934774</v>
+        <v>269.1951904309641</v>
       </c>
       <c r="AD3" t="n">
-        <v>191916.1634610228</v>
+        <v>217503.2014916935</v>
       </c>
       <c r="AE3" t="n">
-        <v>262588.1615908301</v>
+        <v>297597.4758448259</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.347238748363776e-06</v>
+        <v>6.312925413914865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.10625</v>
       </c>
       <c r="AH3" t="n">
-        <v>237527.1159934774</v>
+        <v>269195.1904309641</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.7312830735307</v>
+        <v>531.7173305755495</v>
       </c>
       <c r="AB2" t="n">
-        <v>630.3928675308756</v>
+        <v>727.5191094065304</v>
       </c>
       <c r="AC2" t="n">
-        <v>570.2290570156745</v>
+        <v>658.0857066842534</v>
       </c>
       <c r="AD2" t="n">
-        <v>460731.2830735306</v>
+        <v>531717.3305755495</v>
       </c>
       <c r="AE2" t="n">
-        <v>630392.8675308756</v>
+        <v>727519.1094065304</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.056887517975919e-06</v>
+        <v>3.428708945078448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.29791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>570229.0570156744</v>
+        <v>658085.7066842534</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.0765321363444</v>
+        <v>235.7614446935868</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.2265144899998</v>
+        <v>322.5792096904847</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.5775278440307</v>
+        <v>291.792702660485</v>
       </c>
       <c r="AD2" t="n">
-        <v>204076.5321363444</v>
+        <v>235761.4446935868</v>
       </c>
       <c r="AE2" t="n">
-        <v>279226.5144899999</v>
+        <v>322579.2096904847</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.005742736528284e-06</v>
+        <v>6.096366395636569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.49375</v>
       </c>
       <c r="AH2" t="n">
-        <v>252577.5278440307</v>
+        <v>291792.7026604849</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.3326224052609</v>
+        <v>225.9975070173852</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.526223208094</v>
+        <v>309.2197594073833</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.2802117300768</v>
+        <v>279.7082595622922</v>
       </c>
       <c r="AD2" t="n">
-        <v>193332.6224052609</v>
+        <v>225997.5070173852</v>
       </c>
       <c r="AE2" t="n">
-        <v>264526.223208094</v>
+        <v>309219.7594073833</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.162469704468298e-06</v>
+        <v>6.214195535340621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.868750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>239280.2117300768</v>
+        <v>279708.2595622922</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.2460284299326</v>
+        <v>222.9109130420569</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.3030091601362</v>
+        <v>304.9965453594255</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.4600553035366</v>
+        <v>275.888103135752</v>
       </c>
       <c r="AD3" t="n">
-        <v>190246.0284299326</v>
+        <v>222910.9130420569</v>
       </c>
       <c r="AE3" t="n">
-        <v>260303.0091601362</v>
+        <v>304996.5453594255</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.216397074010608e-06</v>
+        <v>6.294704282030775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.76875</v>
       </c>
       <c r="AH3" t="n">
-        <v>235460.0553035366</v>
+        <v>275888.103135752</v>
       </c>
     </row>
   </sheetData>
